--- a/OnlineDataBuilder/Documents/Employees_2_Declaration_Excel/Employees_2_Declaration_Excel.xlsx
+++ b/OnlineDataBuilder/Documents/Employees_2_Declaration_Excel/Employees_2_Declaration_Excel.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="R0c82f791fe004ddc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="R1648e6cd3a5a417b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -257,43 +257,43 @@
         <x:v>0.0</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
+        <x:v>16811.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>50000.0</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0.0</x:v>
@@ -314,16 +314,16 @@
         <x:v>0.0</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>16811.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>50000.0</x:v>
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.0</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0.0</x:v>
